--- a/Docs/doc_synthese/optimal.xlsx
+++ b/Docs/doc_synthese/optimal.xlsx
@@ -15,7 +15,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
+  <si>
+    <t>Erwan</t>
+  </si>
+  <si>
+    <t>Bichon</t>
+  </si>
   <si>
     <t>XML</t>
   </si>
@@ -42,6 +48,9 @@
   </si>
   <si>
     <t>a280</t>
+  </si>
+  <si>
+    <t>83.306</t>
   </si>
   <si>
     <t>att48</t>
@@ -226,17 +235,19 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:N48"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.52549019607843"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.5764705882353"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5843137254902"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.5764705882353"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.54509803921569"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8588235294118"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.8588235294118"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.6313725490196"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -248,63 +259,98 @@
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
+      <c r="I1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
-      <c r="A2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="I2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
+      <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="A4" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="n">
-        <v>2579</v>
-      </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="n">
-        <f aca="false">(D4-C4)/C4*100</f>
-        <v>-100</v>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
       <c r="A5" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10628</v>
+        <v>2579</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -312,16 +358,35 @@
         <f aca="false">(D5-C5)/C5*100</f>
         <v>-100</v>
       </c>
+      <c r="I5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>2579</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>2825</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <f aca="false">(L5-K5)/K5*100</f>
+        <v>9.53858084528887</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
       <c r="A6" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>27686</v>
+        <v>10628</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -329,16 +394,31 @@
         <f aca="false">(D6-C6)/C6*100</f>
         <v>-100</v>
       </c>
+      <c r="I6" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10628</v>
+      </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4" t="n">
+        <f aca="false">(L6-K6)/K6*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
       <c r="A7" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>39</v>
+        <v>27686</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -346,16 +426,31 @@
         <f aca="false">(D7-C7)/C7*100</f>
         <v>-100</v>
       </c>
+      <c r="I7" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="4" t="n">
+        <v>27686</v>
+      </c>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4" t="n">
+        <f aca="false">(L7-K7)/K7*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
       <c r="A8" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>25395</v>
+        <v>39</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -363,16 +458,31 @@
         <f aca="false">(D8-C8)/C8*100</f>
         <v>-100</v>
       </c>
+      <c r="I8" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4" t="n">
+        <f aca="false">(L8-K8)/K8*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
       <c r="A9" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>22204</v>
+        <v>25395</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -380,16 +490,31 @@
         <f aca="false">(D9-C9)/C9*100</f>
         <v>-100</v>
       </c>
+      <c r="I9" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="4" t="n">
+        <v>25395</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4" t="n">
+        <f aca="false">(L9-K9)/K9*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
       <c r="A10" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>28723</v>
+        <v>22204</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -397,16 +522,31 @@
         <f aca="false">(D10-C10)/C10*100</f>
         <v>-100</v>
       </c>
+      <c r="I10" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4" t="n">
+        <v>22204</v>
+      </c>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4" t="n">
+        <f aca="false">(L10-K10)/K10*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
       <c r="A11" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="n">
-        <v>182566</v>
+        <v>28723</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -414,16 +554,31 @@
         <f aca="false">(D11-C11)/C11*100</f>
         <v>-100</v>
       </c>
+      <c r="I11" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K11" s="4" t="n">
+        <v>28723</v>
+      </c>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4" t="n">
+        <f aca="false">(L11-K11)/K11*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
       <c r="A12" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>22141</v>
+        <v>182566</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -431,16 +586,31 @@
         <f aca="false">(D12-C12)/C12*100</f>
         <v>-100</v>
       </c>
+      <c r="I12" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="4" t="n">
+        <v>182566</v>
+      </c>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4" t="n">
+        <f aca="false">(L12-K12)/K12*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
       <c r="A13" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>26130</v>
+        <v>22141</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -448,16 +618,31 @@
         <f aca="false">(D13-C13)/C13*100</f>
         <v>-100</v>
       </c>
+      <c r="I13" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="4" t="n">
+        <v>22141</v>
+      </c>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4" t="n">
+        <f aca="false">(L13-K13)/K13*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
       <c r="A14" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>29437</v>
+        <v>26130</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -465,16 +650,31 @@
         <f aca="false">(D14-C14)/C14*100</f>
         <v>-100</v>
       </c>
+      <c r="I14" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K14" s="4" t="n">
+        <v>26130</v>
+      </c>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="n">
+        <f aca="false">(L14-K14)/K14*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
       <c r="A15" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="n">
-        <v>20749</v>
+        <v>29437</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -482,16 +682,31 @@
         <f aca="false">(D15-C15)/C15*100</f>
         <v>-100</v>
       </c>
+      <c r="I15" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="4" t="n">
+        <v>29437</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="n">
+        <f aca="false">(L15-K15)/K15*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
       <c r="A16" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="n">
-        <v>21294</v>
+        <v>20749</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -499,16 +714,31 @@
         <f aca="false">(D16-C16)/C16*100</f>
         <v>-100</v>
       </c>
+      <c r="I16" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16" s="4" t="n">
+        <v>20749</v>
+      </c>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="n">
+        <f aca="false">(L16-K16)/K16*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
       <c r="A17" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="n">
-        <v>23260728</v>
+        <v>21294</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -516,16 +746,31 @@
         <f aca="false">(D17-C17)/C17*100</f>
         <v>-100</v>
       </c>
+      <c r="I17" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="4" t="n">
+        <v>21294</v>
+      </c>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4" t="n">
+        <f aca="false">(L17-K17)/K17*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
       <c r="A18" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>378032</v>
+        <v>23260728</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -533,16 +778,31 @@
         <f aca="false">(D18-C18)/C18*100</f>
         <v>-100</v>
       </c>
+      <c r="I18" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="4" t="n">
+        <v>23260728</v>
+      </c>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4" t="n">
+        <f aca="false">(L18-K18)/K18*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
       <c r="A19" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>565040</v>
+        <v>378032</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -550,16 +810,31 @@
         <f aca="false">(D19-C19)/C19*100</f>
         <v>-100</v>
       </c>
+      <c r="I19" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="4" t="n">
+        <v>378032</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4" t="n">
+        <f aca="false">(L19-K19)/K19*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
       <c r="A20" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>554070</v>
+        <v>565040</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
@@ -567,16 +842,31 @@
         <f aca="false">(D20-C20)/C20*100</f>
         <v>-100</v>
       </c>
+      <c r="I20" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="4" t="n">
+        <v>565040</v>
+      </c>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4" t="n">
+        <f aca="false">(L20-K20)/K20*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
       <c r="A21" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>224094</v>
+        <v>554070</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -584,16 +874,31 @@
         <f aca="false">(D21-C21)/C21*100</f>
         <v>-100</v>
       </c>
+      <c r="I21" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="4" t="n">
+        <v>554070</v>
+      </c>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4" t="n">
+        <f aca="false">(L21-K21)/K21*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
       <c r="A22" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>239297</v>
+        <v>224094</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
@@ -601,16 +906,31 @@
         <f aca="false">(D22-C22)/C22*100</f>
         <v>-100</v>
       </c>
+      <c r="I22" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K22" s="4" t="n">
+        <v>224094</v>
+      </c>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4" t="n">
+        <f aca="false">(L22-K22)/K22*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
       <c r="A23" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="n">
-        <v>336556</v>
+        <v>239297</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -618,73 +938,137 @@
         <f aca="false">(D23-C23)/C23*100</f>
         <v>-100</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="25">
-      <c r="A25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
+      <c r="I23" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="4" t="n">
+        <v>239297</v>
+      </c>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4" t="n">
+        <f aca="false">(L23-K23)/K23*100</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
+      <c r="A24" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="4" t="n">
+        <v>336556</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4" t="n">
+        <f aca="false">(D24-C24)/C24*100</f>
+        <v>-100</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K24" s="4" t="n">
+        <v>336556</v>
+      </c>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4" t="n">
+        <f aca="false">(L24-K24)/K24*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
-      <c r="A26" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2" t="s">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="I26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
+      <c r="A27" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="D27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="I27" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
-      <c r="A28" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C28" s="4" t="n">
-        <v>2579</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4" t="n">
-        <f aca="false">(D28-C28)/C28*100</f>
-        <v>-100</v>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
       <c r="A29" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C29" s="4" t="n">
-        <v>10628</v>
+        <v>2579</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -692,16 +1076,31 @@
         <f aca="false">(D29-C29)/C29*100</f>
         <v>-100</v>
       </c>
+      <c r="I29" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="4" t="n">
+        <v>2579</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4" t="n">
+        <f aca="false">(L29-K29)/K29*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
       <c r="A30" s="4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="n">
-        <v>27686</v>
+        <v>10628</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -709,16 +1108,31 @@
         <f aca="false">(D30-C30)/C30*100</f>
         <v>-100</v>
       </c>
+      <c r="I30" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K30" s="4" t="n">
+        <v>10628</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4" t="n">
+        <f aca="false">(L30-K30)/K30*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
       <c r="A31" s="4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="n">
-        <v>39</v>
+        <v>27686</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -726,16 +1140,31 @@
         <f aca="false">(D31-C31)/C31*100</f>
         <v>-100</v>
       </c>
+      <c r="I31" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K31" s="4" t="n">
+        <v>27686</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4" t="n">
+        <f aca="false">(L31-K31)/K31*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
       <c r="A32" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="n">
-        <v>25395</v>
+        <v>39</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -743,16 +1172,31 @@
         <f aca="false">(D32-C32)/C32*100</f>
         <v>-100</v>
       </c>
+      <c r="I32" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K32" s="4" t="n">
+        <v>39</v>
+      </c>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4" t="n">
+        <f aca="false">(L32-K32)/K32*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
       <c r="A33" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="n">
-        <v>22204</v>
+        <v>25395</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -760,16 +1204,31 @@
         <f aca="false">(D33-C33)/C33*100</f>
         <v>-100</v>
       </c>
+      <c r="I33" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <v>25395</v>
+      </c>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4" t="n">
+        <f aca="false">(L33-K33)/K33*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
       <c r="A34" s="4" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C34" s="4" t="n">
-        <v>28723</v>
+        <v>22204</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -777,16 +1236,31 @@
         <f aca="false">(D34-C34)/C34*100</f>
         <v>-100</v>
       </c>
+      <c r="I34" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K34" s="4" t="n">
+        <v>22204</v>
+      </c>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4" t="n">
+        <f aca="false">(L34-K34)/K34*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
       <c r="A35" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4" t="n">
-        <v>182566</v>
+        <v>28723</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -794,16 +1268,31 @@
         <f aca="false">(D35-C35)/C35*100</f>
         <v>-100</v>
       </c>
+      <c r="I35" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <v>28723</v>
+      </c>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4" t="n">
+        <f aca="false">(L35-K35)/K35*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
       <c r="A36" s="4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4" t="n">
-        <v>22141</v>
+        <v>182566</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -811,16 +1300,31 @@
         <f aca="false">(D36-C36)/C36*100</f>
         <v>-100</v>
       </c>
+      <c r="I36" s="4" t="n">
+        <v>7</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="4" t="n">
+        <v>182566</v>
+      </c>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4" t="n">
+        <f aca="false">(L36-K36)/K36*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
       <c r="A37" s="4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="n">
-        <v>26130</v>
+        <v>22141</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -828,16 +1332,31 @@
         <f aca="false">(D37-C37)/C37*100</f>
         <v>-100</v>
       </c>
+      <c r="I37" s="4" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K37" s="4" t="n">
+        <v>22141</v>
+      </c>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4" t="n">
+        <f aca="false">(L37-K37)/K37*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
       <c r="A38" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4" t="n">
-        <v>29437</v>
+        <v>26130</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -845,16 +1364,31 @@
         <f aca="false">(D38-C38)/C38*100</f>
         <v>-100</v>
       </c>
+      <c r="I38" s="4" t="n">
+        <v>9</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K38" s="4" t="n">
+        <v>26130</v>
+      </c>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4" t="n">
+        <f aca="false">(L38-K38)/K38*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
       <c r="A39" s="4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C39" s="4" t="n">
-        <v>20749</v>
+        <v>29437</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -862,16 +1396,31 @@
         <f aca="false">(D39-C39)/C39*100</f>
         <v>-100</v>
       </c>
+      <c r="I39" s="4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="4" t="n">
+        <v>29437</v>
+      </c>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4" t="n">
+        <f aca="false">(L39-K39)/K39*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
       <c r="A40" s="4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C40" s="4" t="n">
-        <v>21294</v>
+        <v>20749</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -879,16 +1428,31 @@
         <f aca="false">(D40-C40)/C40*100</f>
         <v>-100</v>
       </c>
+      <c r="I40" s="4" t="n">
+        <v>11</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40" s="4" t="n">
+        <v>20749</v>
+      </c>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4" t="n">
+        <f aca="false">(L40-K40)/K40*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
       <c r="A41" s="4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4" t="n">
-        <v>23260728</v>
+        <v>21294</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -896,16 +1460,31 @@
         <f aca="false">(D41-C41)/C41*100</f>
         <v>-100</v>
       </c>
+      <c r="I41" s="4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K41" s="4" t="n">
+        <v>21294</v>
+      </c>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4" t="n">
+        <f aca="false">(L41-K41)/K41*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
       <c r="A42" s="4" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C42" s="4" t="n">
-        <v>378032</v>
+        <v>23260728</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -913,16 +1492,31 @@
         <f aca="false">(D42-C42)/C42*100</f>
         <v>-100</v>
       </c>
+      <c r="I42" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K42" s="4" t="n">
+        <v>23260728</v>
+      </c>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4" t="n">
+        <f aca="false">(L42-K42)/K42*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
       <c r="A43" s="4" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4" t="n">
-        <v>565040</v>
+        <v>378032</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -930,16 +1524,31 @@
         <f aca="false">(D43-C43)/C43*100</f>
         <v>-100</v>
       </c>
+      <c r="I43" s="4" t="n">
+        <v>14</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="4" t="n">
+        <v>378032</v>
+      </c>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+      <c r="N43" s="4" t="n">
+        <f aca="false">(L43-K43)/K43*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
       <c r="A44" s="4" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4" t="n">
-        <v>554070</v>
+        <v>565040</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -947,16 +1556,31 @@
         <f aca="false">(D44-C44)/C44*100</f>
         <v>-100</v>
       </c>
+      <c r="I44" s="4" t="n">
+        <v>15</v>
+      </c>
+      <c r="J44" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K44" s="4" t="n">
+        <v>565040</v>
+      </c>
+      <c r="L44" s="4"/>
+      <c r="M44" s="4"/>
+      <c r="N44" s="4" t="n">
+        <f aca="false">(L44-K44)/K44*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
       <c r="A45" s="4" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C45" s="4" t="n">
-        <v>224094</v>
+        <v>554070</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
@@ -964,16 +1588,31 @@
         <f aca="false">(D45-C45)/C45*100</f>
         <v>-100</v>
       </c>
+      <c r="I45" s="4" t="n">
+        <v>16</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K45" s="4" t="n">
+        <v>554070</v>
+      </c>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4" t="n">
+        <f aca="false">(L45-K45)/K45*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
       <c r="A46" s="4" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" s="4" t="n">
-        <v>239297</v>
+        <v>224094</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -981,16 +1620,31 @@
         <f aca="false">(D46-C46)/C46*100</f>
         <v>-100</v>
       </c>
+      <c r="I46" s="4" t="n">
+        <v>17</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K46" s="4" t="n">
+        <v>224094</v>
+      </c>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4" t="n">
+        <f aca="false">(L46-K46)/K46*100</f>
+        <v>-100</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
       <c r="A47" s="4" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C47" s="4" t="n">
-        <v>336556</v>
+        <v>239297</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -998,19 +1652,78 @@
         <f aca="false">(D47-C47)/C47*100</f>
         <v>-100</v>
       </c>
+      <c r="I47" s="4" t="n">
+        <v>18</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="4" t="n">
+        <v>239297</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4" t="n">
+        <f aca="false">(L47-K47)/K47*100</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
+      <c r="A48" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4" t="n">
+        <v>336556</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4" t="n">
+        <f aca="false">(D48-C48)/C48*100</f>
+        <v>-100</v>
+      </c>
+      <c r="I48" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J48" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K48" s="4" t="n">
+        <v>336556</v>
+      </c>
+      <c r="L48" s="4"/>
+      <c r="M48" s="4"/>
+      <c r="N48" s="4" t="n">
+        <f aca="false">(L48-K48)/K48*100</f>
+        <v>-100</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:N27"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/Docs/doc_synthese/optimal.xlsx
+++ b/Docs/doc_synthese/optimal.xlsx
@@ -50,67 +50,67 @@
     <t>a280</t>
   </si>
   <si>
+    <t>att48</t>
+  </si>
+  <si>
+    <t>att532</t>
+  </si>
+  <si>
+    <t>br17</t>
+  </si>
+  <si>
+    <t>brazil58</t>
+  </si>
+  <si>
+    <t>fl1577</t>
+  </si>
+  <si>
+    <t>fl3795</t>
+  </si>
+  <si>
+    <t>fnl4461</t>
+  </si>
+  <si>
+    <t>kroB100</t>
+  </si>
+  <si>
+    <t>kroB150</t>
+  </si>
+  <si>
+    <t>kroB200</t>
+  </si>
+  <si>
+    <t>kroC100</t>
+  </si>
+  <si>
+    <t>kroD100</t>
+  </si>
+  <si>
+    <t>pla7397</t>
+  </si>
+  <si>
+    <t>pr2392</t>
+  </si>
+  <si>
+    <t>rl5915</t>
+  </si>
+  <si>
+    <t>rl5934</t>
+  </si>
+  <si>
+    <t>u1060</t>
+  </si>
+  <si>
+    <t>vm1084</t>
+  </si>
+  <si>
+    <t>vm1748</t>
+  </si>
+  <si>
+    <t>TSP</t>
+  </si>
+  <si>
     <t>83.306</t>
-  </si>
-  <si>
-    <t>att48</t>
-  </si>
-  <si>
-    <t>att532</t>
-  </si>
-  <si>
-    <t>br17</t>
-  </si>
-  <si>
-    <t>brazil58</t>
-  </si>
-  <si>
-    <t>fl1577</t>
-  </si>
-  <si>
-    <t>fl3795</t>
-  </si>
-  <si>
-    <t>fnl4461</t>
-  </si>
-  <si>
-    <t>kroB100</t>
-  </si>
-  <si>
-    <t>kroB150</t>
-  </si>
-  <si>
-    <t>kroB200</t>
-  </si>
-  <si>
-    <t>kroC100</t>
-  </si>
-  <si>
-    <t>kroD100</t>
-  </si>
-  <si>
-    <t>pla7397</t>
-  </si>
-  <si>
-    <t>pr2392</t>
-  </si>
-  <si>
-    <t>rl5915</t>
-  </si>
-  <si>
-    <t>rl5934</t>
-  </si>
-  <si>
-    <t>u1060</t>
-  </si>
-  <si>
-    <t>vm1084</t>
-  </si>
-  <si>
-    <t>vm1748</t>
-  </si>
-  <si>
-    <t>TSP</t>
   </si>
 </sst>
 </file>
@@ -367,15 +367,11 @@
       <c r="K5" s="4" t="n">
         <v>2579</v>
       </c>
-      <c r="L5" s="4" t="n">
-        <v>2825</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>11</v>
-      </c>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
       <c r="N5" s="4" t="n">
         <f aca="false">(L5-K5)/K5*100</f>
-        <v>9.53858084528887</v>
+        <v>-100</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -383,7 +379,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>10628</v>
@@ -398,7 +394,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>10628</v>
@@ -415,7 +411,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>27686</v>
@@ -430,7 +426,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>27686</v>
@@ -447,7 +443,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>39</v>
@@ -462,7 +458,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>39</v>
@@ -479,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>25395</v>
@@ -494,7 +490,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>25395</v>
@@ -511,7 +507,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>22204</v>
@@ -526,7 +522,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>22204</v>
@@ -543,7 +539,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>28723</v>
@@ -558,7 +554,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>28723</v>
@@ -575,7 +571,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>182566</v>
@@ -590,7 +586,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>182566</v>
@@ -607,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>22141</v>
@@ -622,7 +618,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>22141</v>
@@ -639,7 +635,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>26130</v>
@@ -654,7 +650,7 @@
         <v>9</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>26130</v>
@@ -671,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>29437</v>
@@ -686,7 +682,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>29437</v>
@@ -703,7 +699,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>20749</v>
@@ -718,7 +714,7 @@
         <v>11</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="4" t="n">
         <v>20749</v>
@@ -735,7 +731,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>21294</v>
@@ -750,7 +746,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>21294</v>
@@ -767,7 +763,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>23260728</v>
@@ -782,7 +778,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>23260728</v>
@@ -799,7 +795,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>378032</v>
@@ -814,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>378032</v>
@@ -831,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>565040</v>
@@ -846,7 +842,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>565040</v>
@@ -863,7 +859,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>554070</v>
@@ -878,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>554070</v>
@@ -895,7 +891,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>224094</v>
@@ -910,7 +906,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>224094</v>
@@ -927,7 +923,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>239297</v>
@@ -942,7 +938,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>239297</v>
@@ -959,7 +955,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>336556</v>
@@ -974,7 +970,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>336556</v>
@@ -988,7 +984,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -996,7 +992,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1085,11 +1081,15 @@
       <c r="K29" s="4" t="n">
         <v>2579</v>
       </c>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
+      <c r="L29" s="4" t="n">
+        <v>2825</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>31</v>
+      </c>
       <c r="N29" s="4" t="n">
         <f aca="false">(L29-K29)/K29*100</f>
-        <v>-100</v>
+        <v>9.53858084528887</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>10628</v>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>10628</v>
@@ -1129,7 +1129,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>27686</v>
@@ -1144,7 +1144,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>27686</v>
@@ -1161,7 +1161,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>39</v>
@@ -1176,7 +1176,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>39</v>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>25395</v>
@@ -1208,7 +1208,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K33" s="4" t="n">
         <v>25395</v>
@@ -1225,7 +1225,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>22204</v>
@@ -1240,7 +1240,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>22204</v>
@@ -1257,7 +1257,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>28723</v>
@@ -1272,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K35" s="4" t="n">
         <v>28723</v>
@@ -1289,7 +1289,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>182566</v>
@@ -1304,7 +1304,7 @@
         <v>7</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>182566</v>
@@ -1321,7 +1321,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>22141</v>
@@ -1336,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>22141</v>
@@ -1353,7 +1353,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>26130</v>
@@ -1368,7 +1368,7 @@
         <v>9</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>26130</v>
@@ -1385,7 +1385,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>29437</v>
@@ -1400,7 +1400,7 @@
         <v>10</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>29437</v>
@@ -1417,7 +1417,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>20749</v>
@@ -1432,7 +1432,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>20749</v>
@@ -1449,7 +1449,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>21294</v>
@@ -1464,7 +1464,7 @@
         <v>12</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>21294</v>
@@ -1481,7 +1481,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>23260728</v>
@@ -1496,7 +1496,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>23260728</v>
@@ -1513,7 +1513,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>378032</v>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>378032</v>
@@ -1545,7 +1545,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>565040</v>
@@ -1560,7 +1560,7 @@
         <v>15</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>565040</v>
@@ -1577,7 +1577,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>554070</v>
@@ -1592,7 +1592,7 @@
         <v>16</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>554070</v>
@@ -1609,7 +1609,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>224094</v>
@@ -1624,7 +1624,7 @@
         <v>17</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>224094</v>
@@ -1641,7 +1641,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>239297</v>
@@ -1656,7 +1656,7 @@
         <v>18</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>239297</v>
@@ -1673,7 +1673,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>336556</v>
@@ -1688,7 +1688,7 @@
         <v>19</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>336556</v>

--- a/Docs/doc_synthese/optimal.xlsx
+++ b/Docs/doc_synthese/optimal.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
   <si>
     <t>Erwan</t>
   </si>
@@ -50,6 +50,9 @@
     <t>a280</t>
   </si>
   <si>
+    <t>57.271</t>
+  </si>
+  <si>
     <t>att48</t>
   </si>
   <si>
@@ -110,7 +113,7 @@
     <t>TSP</t>
   </si>
   <si>
-    <t>83.306</t>
+    <t>88.559</t>
   </si>
 </sst>
 </file>
@@ -367,11 +370,15 @@
       <c r="K5" s="4" t="n">
         <v>2579</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="L5" s="4" t="n">
+        <v>2913</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="N5" s="4" t="n">
         <f aca="false">(L5-K5)/K5*100</f>
-        <v>-100</v>
+        <v>12.9507561070182</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
@@ -379,7 +386,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>10628</v>
@@ -394,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K6" s="4" t="n">
         <v>10628</v>
@@ -411,7 +418,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>27686</v>
@@ -426,7 +433,7 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>27686</v>
@@ -443,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>39</v>
@@ -458,7 +465,7 @@
         <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>39</v>
@@ -475,7 +482,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>25395</v>
@@ -490,7 +497,7 @@
         <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>25395</v>
@@ -507,7 +514,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>22204</v>
@@ -522,7 +529,7 @@
         <v>5</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>22204</v>
@@ -539,7 +546,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>28723</v>
@@ -554,7 +561,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>28723</v>
@@ -571,7 +578,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>182566</v>
@@ -586,7 +593,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>182566</v>
@@ -603,7 +610,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>22141</v>
@@ -618,7 +625,7 @@
         <v>8</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>22141</v>
@@ -635,7 +642,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>26130</v>
@@ -650,7 +657,7 @@
         <v>9</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>26130</v>
@@ -667,7 +674,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>29437</v>
@@ -682,7 +689,7 @@
         <v>10</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>29437</v>
@@ -699,7 +706,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>20749</v>
@@ -714,7 +721,7 @@
         <v>11</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K16" s="4" t="n">
         <v>20749</v>
@@ -731,7 +738,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>21294</v>
@@ -746,7 +753,7 @@
         <v>12</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>21294</v>
@@ -763,7 +770,7 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>23260728</v>
@@ -778,7 +785,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>23260728</v>
@@ -795,7 +802,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>378032</v>
@@ -810,7 +817,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>378032</v>
@@ -827,7 +834,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>565040</v>
@@ -842,7 +849,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>565040</v>
@@ -859,7 +866,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>554070</v>
@@ -874,7 +881,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>554070</v>
@@ -891,7 +898,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>224094</v>
@@ -906,7 +913,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>224094</v>
@@ -923,7 +930,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>239297</v>
@@ -938,7 +945,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>239297</v>
@@ -955,7 +962,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>336556</v>
@@ -970,7 +977,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>336556</v>
@@ -984,7 +991,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -992,7 +999,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1082,14 +1089,14 @@
         <v>2579</v>
       </c>
       <c r="L29" s="4" t="n">
-        <v>2825</v>
+        <v>2888</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N29" s="4" t="n">
         <f aca="false">(L29-K29)/K29*100</f>
-        <v>9.53858084528887</v>
+        <v>11.981388134936</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
@@ -1097,7 +1104,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="n">
         <v>10628</v>
@@ -1112,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K30" s="4" t="n">
         <v>10628</v>
@@ -1129,7 +1136,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>27686</v>
@@ -1144,7 +1151,7 @@
         <v>2</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>27686</v>
@@ -1161,7 +1168,7 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>39</v>
@@ -1176,7 +1183,7 @@
         <v>3</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>39</v>
@@ -1193,7 +1200,7 @@
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>25395</v>
@@ -1208,7 +1215,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K33" s="4" t="n">
         <v>25395</v>
@@ -1225,7 +1232,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>22204</v>
@@ -1240,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>22204</v>
@@ -1257,7 +1264,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>28723</v>
@@ -1272,7 +1279,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K35" s="4" t="n">
         <v>28723</v>
@@ -1289,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>182566</v>
@@ -1304,7 +1311,7 @@
         <v>7</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>182566</v>
@@ -1321,7 +1328,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>22141</v>
@@ -1336,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>22141</v>
@@ -1353,7 +1360,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>26130</v>
@@ -1368,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>26130</v>
@@ -1385,7 +1392,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>29437</v>
@@ -1400,7 +1407,7 @@
         <v>10</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>29437</v>
@@ -1417,7 +1424,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>20749</v>
@@ -1432,7 +1439,7 @@
         <v>11</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>20749</v>
@@ -1449,7 +1456,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>21294</v>
@@ -1464,7 +1471,7 @@
         <v>12</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>21294</v>
@@ -1481,7 +1488,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>23260728</v>
@@ -1496,7 +1503,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>23260728</v>
@@ -1513,7 +1520,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>378032</v>
@@ -1528,7 +1535,7 @@
         <v>14</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>378032</v>
@@ -1545,7 +1552,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>565040</v>
@@ -1560,7 +1567,7 @@
         <v>15</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>565040</v>
@@ -1577,7 +1584,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>554070</v>
@@ -1592,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>554070</v>
@@ -1609,7 +1616,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>224094</v>
@@ -1624,7 +1631,7 @@
         <v>17</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>224094</v>
@@ -1641,7 +1648,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>239297</v>
@@ -1656,7 +1663,7 @@
         <v>18</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>239297</v>
@@ -1673,7 +1680,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>336556</v>
@@ -1688,7 +1695,7 @@
         <v>19</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>336556</v>

--- a/Docs/doc_synthese/optimal.xlsx
+++ b/Docs/doc_synthese/optimal.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
   <si>
     <t>Erwan</t>
   </si>
@@ -56,18 +56,30 @@
     <t>att48</t>
   </si>
   <si>
+    <t>0.675</t>
+  </si>
+  <si>
     <t>att532</t>
   </si>
   <si>
     <t>br17</t>
   </si>
   <si>
+    <t>0.171</t>
+  </si>
+  <si>
     <t>brazil58</t>
   </si>
   <si>
+    <t>0.309</t>
+  </si>
+  <si>
     <t>fl1577</t>
   </si>
   <si>
+    <t>1885.396</t>
+  </si>
+  <si>
     <t>fl3795</t>
   </si>
   <si>
@@ -83,6 +95,9 @@
     <t>kroB200</t>
   </si>
   <si>
+    <t>31.866</t>
+  </si>
+  <si>
     <t>kroC100</t>
   </si>
   <si>
@@ -114,6 +129,18 @@
   </si>
   <si>
     <t>88.559</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>945.651</t>
+  </si>
+  <si>
+    <t>20.38</t>
+  </si>
+  <si>
+    <t>55.152</t>
   </si>
 </sst>
 </file>
@@ -207,7 +234,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
@@ -221,6 +248,10 @@
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
+      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    </xf>
+    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
@@ -406,11 +437,15 @@
       <c r="K6" s="4" t="n">
         <v>10628</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="L6" s="4" t="n">
+        <v>11196</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="N6" s="4" t="n">
         <f aca="false">(L6-K6)/K6*100</f>
-        <v>-100</v>
+        <v>5.3443733534061</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
@@ -418,7 +453,7 @@
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>27686</v>
@@ -433,16 +468,20 @@
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K7" s="4" t="n">
         <v>27686</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
+      <c r="L7" s="4" t="n">
+        <v>31778</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>10.94</v>
+      </c>
       <c r="N7" s="4" t="n">
         <f aca="false">(L7-K7)/K7*100</f>
-        <v>-100</v>
+        <v>14.7800332297912</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
@@ -450,7 +489,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>39</v>
@@ -465,16 +504,20 @@
         <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K8" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
+      <c r="L8" s="4" t="n">
+        <v>77</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="N8" s="4" t="n">
         <f aca="false">(L8-K8)/K8*100</f>
-        <v>-100</v>
+        <v>97.4358974358974</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
@@ -482,7 +525,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>25395</v>
@@ -497,16 +540,20 @@
         <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K9" s="4" t="n">
         <v>25395</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
+      <c r="L9" s="4" t="n">
+        <v>26573</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="N9" s="4" t="n">
         <f aca="false">(L9-K9)/K9*100</f>
-        <v>-100</v>
+        <v>4.63870840716677</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
@@ -514,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>22204</v>
@@ -529,16 +576,20 @@
         <v>5</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K10" s="4" t="n">
         <v>22204</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
+      <c r="L10" s="4" t="n">
+        <v>27788</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="N10" s="4" t="n">
         <f aca="false">(L10-K10)/K10*100</f>
-        <v>-100</v>
+        <v>25.1486218699333</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
@@ -546,7 +597,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C11" s="4" t="n">
         <v>28723</v>
@@ -561,7 +612,7 @@
         <v>6</v>
       </c>
       <c r="J11" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K11" s="4" t="n">
         <v>28723</v>
@@ -578,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C12" s="4" t="n">
         <v>182566</v>
@@ -593,7 +644,7 @@
         <v>7</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K12" s="4" t="n">
         <v>182566</v>
@@ -610,7 +661,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="n">
         <v>22141</v>
@@ -625,16 +676,20 @@
         <v>8</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K13" s="4" t="n">
         <v>22141</v>
       </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
+      <c r="L13" s="4" t="n">
+        <v>24826</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>3.812</v>
+      </c>
       <c r="N13" s="4" t="n">
         <f aca="false">(L13-K13)/K13*100</f>
-        <v>-100</v>
+        <v>12.1268235400388</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
@@ -642,7 +697,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C14" s="4" t="n">
         <v>26130</v>
@@ -657,16 +712,20 @@
         <v>9</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K14" s="4" t="n">
         <v>26130</v>
       </c>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
+      <c r="L14" s="4" t="n">
+        <v>30609</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>12.711</v>
+      </c>
       <c r="N14" s="4" t="n">
         <f aca="false">(L14-K14)/K14*100</f>
-        <v>-100</v>
+        <v>17.1412169919633</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
@@ -674,7 +733,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C15" s="4" t="n">
         <v>29437</v>
@@ -689,16 +748,20 @@
         <v>10</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K15" s="4" t="n">
         <v>29437</v>
       </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
+      <c r="L15" s="4" t="n">
+        <v>31600</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N15" s="4" t="n">
         <f aca="false">(L15-K15)/K15*100</f>
-        <v>-100</v>
+        <v>7.34789550565615</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
@@ -706,7 +769,7 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16" s="4" t="n">
         <v>20749</v>
@@ -721,16 +784,20 @@
         <v>11</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K16" s="4" t="n">
         <v>20749</v>
       </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
+      <c r="L16" s="4" t="n">
+        <v>23250</v>
+      </c>
+      <c r="M16" s="4" t="n">
+        <v>5.44</v>
+      </c>
       <c r="N16" s="4" t="n">
         <f aca="false">(L16-K16)/K16*100</f>
-        <v>-100</v>
+        <v>12.0535929442383</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
@@ -738,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C17" s="4" t="n">
         <v>21294</v>
@@ -753,16 +820,20 @@
         <v>12</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>21294</v>
       </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="L17" s="4" t="n">
+        <v>23642</v>
+      </c>
+      <c r="M17" s="4" t="n">
+        <v>4.084</v>
+      </c>
       <c r="N17" s="4" t="n">
         <f aca="false">(L17-K17)/K17*100</f>
-        <v>-100</v>
+        <v>11.0265802573495</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
@@ -770,12 +841,12 @@
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C18" s="4" t="n">
         <v>23260728</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="6"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="n">
         <f aca="false">(D18-C18)/C18*100</f>
@@ -785,7 +856,7 @@
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K18" s="4" t="n">
         <v>23260728</v>
@@ -802,7 +873,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C19" s="4" t="n">
         <v>378032</v>
@@ -817,7 +888,7 @@
         <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K19" s="4" t="n">
         <v>378032</v>
@@ -834,7 +905,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="n">
         <v>565040</v>
@@ -849,7 +920,7 @@
         <v>15</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K20" s="4" t="n">
         <v>565040</v>
@@ -866,7 +937,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C21" s="4" t="n">
         <v>554070</v>
@@ -881,7 +952,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K21" s="4" t="n">
         <v>554070</v>
@@ -898,7 +969,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C22" s="4" t="n">
         <v>224094</v>
@@ -913,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K22" s="4" t="n">
         <v>224094</v>
@@ -930,7 +1001,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>239297</v>
@@ -945,7 +1016,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>239297</v>
@@ -962,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>336556</v>
@@ -977,7 +1048,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>336556</v>
@@ -991,7 +1062,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -999,7 +1070,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1092,7 +1163,7 @@
         <v>2888</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="N29" s="4" t="n">
         <f aca="false">(L29-K29)/K29*100</f>
@@ -1109,11 +1180,15 @@
       <c r="C30" s="4" t="n">
         <v>10628</v>
       </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4" t="n">
+      <c r="D30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="4" t="e">
         <f aca="false">(D30-C30)/C30*100</f>
-        <v>-100</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I30" s="4" t="n">
         <v>1</v>
@@ -1124,11 +1199,15 @@
       <c r="K30" s="4" t="n">
         <v>10628</v>
       </c>
-      <c r="L30" s="4"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4" t="n">
+      <c r="L30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N30" s="4" t="e">
         <f aca="false">(L30-K30)/K30*100</f>
-        <v>-100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
@@ -1136,31 +1215,39 @@
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4" t="n">
         <v>27686</v>
       </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4" t="n">
+      <c r="D31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="4" t="e">
         <f aca="false">(D31-C31)/C31*100</f>
-        <v>-100</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I31" s="4" t="n">
         <v>2</v>
       </c>
       <c r="J31" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K31" s="4" t="n">
         <v>27686</v>
       </c>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4" t="n">
+      <c r="L31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N31" s="4" t="e">
         <f aca="false">(L31-K31)/K31*100</f>
-        <v>-100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
@@ -1168,31 +1255,39 @@
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4" t="n">
+      <c r="D32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="4" t="e">
         <f aca="false">(D32-C32)/C32*100</f>
-        <v>-100</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I32" s="4" t="n">
         <v>3</v>
       </c>
       <c r="J32" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K32" s="4" t="n">
         <v>39</v>
       </c>
-      <c r="L32" s="4"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4" t="n">
+      <c r="L32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N32" s="4" t="e">
         <f aca="false">(L32-K32)/K32*100</f>
-        <v>-100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
@@ -1200,31 +1295,39 @@
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4" t="n">
         <v>25395</v>
       </c>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4" t="n">
+      <c r="D33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="4" t="e">
         <f aca="false">(D33-C33)/C33*100</f>
-        <v>-100</v>
+        <v>#VALUE!</v>
       </c>
       <c r="I33" s="4" t="n">
         <v>4</v>
       </c>
       <c r="J33" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K33" s="4" t="n">
         <v>25395</v>
       </c>
-      <c r="L33" s="4"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4" t="n">
+      <c r="L33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N33" s="4" t="e">
         <f aca="false">(L33-K33)/K33*100</f>
-        <v>-100</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
@@ -1232,7 +1335,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C34" s="4" t="n">
         <v>22204</v>
@@ -1247,16 +1350,20 @@
         <v>5</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K34" s="4" t="n">
         <v>22204</v>
       </c>
-      <c r="L34" s="4"/>
-      <c r="M34" s="4"/>
+      <c r="L34" s="4" t="n">
+        <v>27736</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="N34" s="4" t="n">
         <f aca="false">(L34-K34)/K34*100</f>
-        <v>-100</v>
+        <v>24.9144298324626</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
@@ -1264,7 +1371,7 @@
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C35" s="4" t="n">
         <v>28723</v>
@@ -1279,7 +1386,7 @@
         <v>6</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="K35" s="4" t="n">
         <v>28723</v>
@@ -1296,7 +1403,7 @@
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C36" s="4" t="n">
         <v>182566</v>
@@ -1311,7 +1418,7 @@
         <v>7</v>
       </c>
       <c r="J36" s="4" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="K36" s="4" t="n">
         <v>182566</v>
@@ -1328,7 +1435,7 @@
         <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C37" s="4" t="n">
         <v>22141</v>
@@ -1343,16 +1450,20 @@
         <v>8</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>22141</v>
       </c>
-      <c r="L37" s="4"/>
-      <c r="M37" s="4"/>
+      <c r="L37" s="4" t="n">
+        <v>24687</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>6.38</v>
+      </c>
       <c r="N37" s="4" t="n">
         <f aca="false">(L37-K37)/K37*100</f>
-        <v>-100</v>
+        <v>11.4990289508152</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
@@ -1360,7 +1471,7 @@
         <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C38" s="4" t="n">
         <v>26130</v>
@@ -1375,16 +1486,20 @@
         <v>9</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>26130</v>
       </c>
-      <c r="L38" s="4"/>
-      <c r="M38" s="4"/>
+      <c r="L38" s="4" t="n">
+        <v>31117</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="N38" s="4" t="n">
         <f aca="false">(L38-K38)/K38*100</f>
-        <v>-100</v>
+        <v>19.0853425181783</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
@@ -1392,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C39" s="4" t="n">
         <v>29437</v>
@@ -1407,16 +1522,20 @@
         <v>10</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K39" s="4" t="n">
         <v>29437</v>
       </c>
-      <c r="L39" s="4"/>
-      <c r="M39" s="4"/>
+      <c r="L39" s="4" t="n">
+        <v>31322</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="N39" s="4" t="n">
         <f aca="false">(L39-K39)/K39*100</f>
-        <v>-100</v>
+        <v>6.40350579203044</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
@@ -1424,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C40" s="4" t="n">
         <v>20749</v>
@@ -1439,16 +1558,20 @@
         <v>11</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="K40" s="4" t="n">
         <v>20749</v>
       </c>
-      <c r="L40" s="4"/>
-      <c r="M40" s="4"/>
+      <c r="L40" s="4" t="n">
+        <v>23184</v>
+      </c>
+      <c r="M40" s="4" t="n">
+        <v>5.787</v>
+      </c>
       <c r="N40" s="4" t="n">
         <f aca="false">(L40-K40)/K40*100</f>
-        <v>-100</v>
+        <v>11.7355053255579</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
@@ -1456,7 +1579,7 @@
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C41" s="4" t="n">
         <v>21294</v>
@@ -1471,16 +1594,20 @@
         <v>12</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="K41" s="4" t="n">
         <v>21294</v>
       </c>
-      <c r="L41" s="4"/>
-      <c r="M41" s="4"/>
+      <c r="L41" s="4" t="n">
+        <v>23381</v>
+      </c>
+      <c r="M41" s="4" t="n">
+        <v>7.061</v>
+      </c>
       <c r="N41" s="4" t="n">
         <f aca="false">(L41-K41)/K41*100</f>
-        <v>-100</v>
+        <v>9.80088287780596</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
@@ -1488,7 +1615,7 @@
         <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C42" s="4" t="n">
         <v>23260728</v>
@@ -1503,7 +1630,7 @@
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="K42" s="4" t="n">
         <v>23260728</v>
@@ -1520,7 +1647,7 @@
         <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C43" s="4" t="n">
         <v>378032</v>
@@ -1535,7 +1662,7 @@
         <v>14</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K43" s="4" t="n">
         <v>378032</v>
@@ -1552,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C44" s="4" t="n">
         <v>565040</v>
@@ -1567,7 +1694,7 @@
         <v>15</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="K44" s="4" t="n">
         <v>565040</v>
@@ -1584,7 +1711,7 @@
         <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C45" s="4" t="n">
         <v>554070</v>
@@ -1599,7 +1726,7 @@
         <v>16</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="K45" s="4" t="n">
         <v>554070</v>
@@ -1616,7 +1743,7 @@
         <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C46" s="4" t="n">
         <v>224094</v>
@@ -1631,7 +1758,7 @@
         <v>17</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="K46" s="4" t="n">
         <v>224094</v>
@@ -1648,7 +1775,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>239297</v>
@@ -1663,7 +1790,7 @@
         <v>18</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>239297</v>
@@ -1680,7 +1807,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>336556</v>
@@ -1695,7 +1822,7 @@
         <v>19</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>336556</v>

--- a/Docs/doc_synthese/optimal.xlsx
+++ b/Docs/doc_synthese/optimal.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
   <si>
     <t>Erwan</t>
   </si>
@@ -119,6 +119,9 @@
     <t>u1060</t>
   </si>
   <si>
+    <t>1691.457</t>
+  </si>
+  <si>
     <t>vm1084</t>
   </si>
   <si>
@@ -141,6 +144,9 @@
   </si>
   <si>
     <t>55.152</t>
+  </si>
+  <si>
+    <t>1679.089</t>
   </si>
 </sst>
 </file>
@@ -989,11 +995,15 @@
       <c r="K22" s="4" t="n">
         <v>224094</v>
       </c>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
+      <c r="L22" s="4" t="n">
+        <v>290997</v>
+      </c>
+      <c r="M22" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="N22" s="4" t="n">
         <f aca="false">(L22-K22)/K22*100</f>
-        <v>-100</v>
+        <v>29.8548823261667</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
@@ -1001,7 +1011,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C23" s="4" t="n">
         <v>239297</v>
@@ -1016,7 +1026,7 @@
         <v>18</v>
       </c>
       <c r="J23" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K23" s="4" t="n">
         <v>239297</v>
@@ -1033,7 +1043,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C24" s="4" t="n">
         <v>336556</v>
@@ -1048,7 +1058,7 @@
         <v>19</v>
       </c>
       <c r="J24" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K24" s="4" t="n">
         <v>336556</v>
@@ -1062,7 +1072,7 @@
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
       <c r="A26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1070,7 +1080,7 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -1163,7 +1173,7 @@
         <v>2888</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N29" s="4" t="n">
         <f aca="false">(L29-K29)/K29*100</f>
@@ -1181,10 +1191,10 @@
         <v>10628</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" s="4" t="e">
         <f aca="false">(D30-C30)/C30*100</f>
@@ -1200,10 +1210,10 @@
         <v>10628</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N30" s="4" t="e">
         <f aca="false">(L30-K30)/K30*100</f>
@@ -1221,10 +1231,10 @@
         <v>27686</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" s="4" t="e">
         <f aca="false">(D31-C31)/C31*100</f>
@@ -1240,10 +1250,10 @@
         <v>27686</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N31" s="4" t="e">
         <f aca="false">(L31-K31)/K31*100</f>
@@ -1261,10 +1271,10 @@
         <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F32" s="4" t="e">
         <f aca="false">(D32-C32)/C32*100</f>
@@ -1280,10 +1290,10 @@
         <v>39</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M32" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N32" s="4" t="e">
         <f aca="false">(L32-K32)/K32*100</f>
@@ -1301,10 +1311,10 @@
         <v>25395</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F33" s="4" t="e">
         <f aca="false">(D33-C33)/C33*100</f>
@@ -1320,10 +1330,10 @@
         <v>25395</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N33" s="4" t="e">
         <f aca="false">(L33-K33)/K33*100</f>
@@ -1359,7 +1369,7 @@
         <v>27736</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N34" s="4" t="n">
         <f aca="false">(L34-K34)/K34*100</f>
@@ -1495,7 +1505,7 @@
         <v>31117</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N38" s="4" t="n">
         <f aca="false">(L38-K38)/K38*100</f>
@@ -1531,7 +1541,7 @@
         <v>31322</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N39" s="4" t="n">
         <f aca="false">(L39-K39)/K39*100</f>
@@ -1763,11 +1773,15 @@
       <c r="K46" s="4" t="n">
         <v>224094</v>
       </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
+      <c r="L46" s="4" t="n">
+        <v>290935</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="N46" s="4" t="n">
         <f aca="false">(L46-K46)/K46*100</f>
-        <v>-100</v>
+        <v>29.8272153649808</v>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
@@ -1775,7 +1789,7 @@
         <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47" s="4" t="n">
         <v>239297</v>
@@ -1790,7 +1804,7 @@
         <v>18</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>239297</v>
@@ -1807,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C48" s="4" t="n">
         <v>336556</v>
@@ -1822,7 +1836,7 @@
         <v>19</v>
       </c>
       <c r="J48" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>336556</v>

--- a/Docs/doc_synthese/optimal.xlsx
+++ b/Docs/doc_synthese/optimal.xlsx
@@ -240,7 +240,7 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
@@ -249,9 +249,6 @@
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
     <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
@@ -282,12 +279,12 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.54509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.6313725490196"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.56470588235294"/>
+    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="11.6941176470588"/>
+    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.9411764705882"/>
+    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.6941176470588"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
@@ -482,7 +479,7 @@
       <c r="L7" s="4" t="n">
         <v>31778</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="4" t="n">
         <v>10.94</v>
       </c>
       <c r="N7" s="4" t="n">
@@ -690,7 +687,7 @@
       <c r="L13" s="4" t="n">
         <v>24826</v>
       </c>
-      <c r="M13" s="5" t="n">
+      <c r="M13" s="4" t="n">
         <v>3.812</v>
       </c>
       <c r="N13" s="4" t="n">
@@ -726,7 +723,7 @@
       <c r="L14" s="4" t="n">
         <v>30609</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="4" t="n">
         <v>12.711</v>
       </c>
       <c r="N14" s="4" t="n">
@@ -852,7 +849,7 @@
       <c r="C18" s="4" t="n">
         <v>23260728</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="5"/>
       <c r="E18" s="4"/>
       <c r="F18" s="4" t="n">
         <f aca="false">(D18-C18)/C18*100</f>
@@ -1468,7 +1465,7 @@
       <c r="L37" s="4" t="n">
         <v>24687</v>
       </c>
-      <c r="M37" s="5" t="n">
+      <c r="M37" s="4" t="n">
         <v>6.38</v>
       </c>
       <c r="N37" s="4" t="n">
@@ -1726,11 +1723,13 @@
       <c r="C45" s="4" t="n">
         <v>554070</v>
       </c>
-      <c r="D45" s="4"/>
+      <c r="D45" s="5" t="n">
+        <v>648800</v>
+      </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4" t="n">
         <f aca="false">(D45-C45)/C45*100</f>
-        <v>-100</v>
+        <v>17.0971176927103</v>
       </c>
       <c r="I45" s="4" t="n">
         <v>16</v>

--- a/Docs/doc_synthese/optimal.xlsx
+++ b/Docs/doc_synthese/optimal.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="47">
   <si>
     <t>Erwan</t>
   </si>
@@ -147,41 +146,32 @@
   </si>
   <si>
     <t>1679.089</t>
+  </si>
+  <si>
+    <t>pr2392 (ppi)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>30.166 sec</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt formatCode="GENERAL" numFmtId="164"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
-      <name val="Arial"/>
-      <family val="0"/>
+      <b/>
       <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="0"/>
-      <sz val="10"/>
-    </font>
-    <font>
       <name val="Arial"/>
       <family val="2"/>
-      <b val="true"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,174 +182,524 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
-    <border diagonalDown="false" diagonalUp="false">
+  <borders count="8">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalDown="false" diagonalUp="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="true" borderId="0" fillId="0" fontId="0" numFmtId="164">
-      <alignment horizontal="general" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-      <protection hidden="false" locked="true"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="13">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="43"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="41"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="44"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="1" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="center" wrapText="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="true" applyProtection="false" borderId="2" fillId="0" fontId="4" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="true" applyFont="false" applyProtection="false" borderId="2" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="center" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle builtinId="0" customBuiltin="false" name="Normal" xfId="0"/>
-    <cellStyle builtinId="3" customBuiltin="false" name="Comma" xfId="15"/>
-    <cellStyle builtinId="6" customBuiltin="false" name="Comma [0]" xfId="16"/>
-    <cellStyle builtinId="4" customBuiltin="false" name="Currency" xfId="17"/>
-    <cellStyle builtinId="7" customBuiltin="false" name="Currency [0]" xfId="18"/>
-    <cellStyle builtinId="5" customBuiltin="false" name="Percent" xfId="19"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:N48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P49"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="60">
-      <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScaleNormal="100" zoomScalePageLayoutView="60" workbookViewId="0">
+      <selection activeCell="N37" sqref="I37:N37"/>
     </sheetView>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="3.54509803921569"/>
-    <col collapsed="false" hidden="false" max="5" min="2" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="13" min="7" style="0" width="11.6313725490196"/>
-    <col collapsed="false" hidden="false" max="14" min="14" style="0" width="16.8588235294118"/>
-    <col collapsed="false" hidden="false" max="1025" min="15" style="0" width="11.6313725490196"/>
+    <col min="1" max="1" width="3.5703125"/>
+    <col min="2" max="5" width="11.5703125"/>
+    <col min="6" max="6" width="16.85546875"/>
+    <col min="7" max="13" width="11.5703125"/>
+    <col min="14" max="14" width="16.85546875"/>
+    <col min="15" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="2">
-      <c r="A2" s="1" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="I2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="3">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="I3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="I3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="4">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
@@ -369,9 +709,9 @@
       <c r="F4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
       <c r="L4" s="3" t="s">
         <v>7</v>
       </c>
@@ -382,746 +722,746 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="5">
-      <c r="A5" s="4" t="n">
+    <row r="5" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4">
         <v>0</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4" t="n">
+      <c r="C5" s="4">
         <v>2579</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="4" t="n">
-        <f aca="false">(D5-C5)/C5*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I5" s="4" t="n">
+      <c r="F5" s="4">
+        <f t="shared" ref="F5:F24" si="0">(D5-C5)/C5*100</f>
+        <v>-100</v>
+      </c>
+      <c r="I5" s="4">
         <v>0</v>
       </c>
       <c r="J5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K5" s="4" t="n">
+      <c r="K5" s="4">
         <v>2579</v>
       </c>
-      <c r="L5" s="4" t="n">
+      <c r="L5" s="4">
         <v>2913</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="N5" s="4" t="n">
-        <f aca="false">(L5-K5)/K5*100</f>
-        <v>12.9507561070182</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="6">
-      <c r="A6" s="4" t="n">
+      <c r="N5" s="4">
+        <f t="shared" ref="N5:N24" si="1">(L5-K5)/K5*100</f>
+        <v>12.950756107018224</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="4" t="n">
+      <c r="C6" s="4">
         <v>10628</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6" s="4" t="n">
-        <f aca="false">(D6-C6)/C6*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I6" s="4" t="n">
+      <c r="F6" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I6" s="4">
         <v>1</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="4" t="n">
+      <c r="K6" s="4">
         <v>10628</v>
       </c>
-      <c r="L6" s="4" t="n">
+      <c r="L6" s="4">
         <v>11196</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="4" t="n">
-        <f aca="false">(L6-K6)/K6*100</f>
-        <v>5.3443733534061</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="7">
-      <c r="A7" s="4" t="n">
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
+        <v>5.3443733534060973</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="4" t="n">
+      <c r="C7" s="4">
         <v>27686</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4" t="n">
-        <f aca="false">(D7-C7)/C7*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I7" s="4" t="n">
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I7" s="4">
         <v>2</v>
       </c>
       <c r="J7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K7" s="4" t="n">
+      <c r="K7" s="4">
         <v>27686</v>
       </c>
-      <c r="L7" s="4" t="n">
+      <c r="L7" s="4">
         <v>31778</v>
       </c>
-      <c r="M7" s="5" t="n">
+      <c r="M7" s="5">
         <v>10.94</v>
       </c>
-      <c r="N7" s="4" t="n">
-        <f aca="false">(L7-K7)/K7*100</f>
-        <v>14.7800332297912</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="8">
-      <c r="A8" s="4" t="n">
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
+        <v>14.780033229791231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="4">
         <v>39</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
-      <c r="F8" s="4" t="n">
-        <f aca="false">(D8-C8)/C8*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I8" s="4" t="n">
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I8" s="4">
         <v>3</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K8" s="4" t="n">
+      <c r="K8" s="4">
         <v>39</v>
       </c>
-      <c r="L8" s="4" t="n">
+      <c r="L8" s="4">
         <v>77</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="4" t="n">
-        <f aca="false">(L8-K8)/K8*100</f>
-        <v>97.4358974358974</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="9">
-      <c r="A9" s="4" t="n">
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
+        <v>97.435897435897431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="4">
         <v>25395</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
-      <c r="F9" s="4" t="n">
-        <f aca="false">(D9-C9)/C9*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I9" s="4" t="n">
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I9" s="4">
         <v>4</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="4" t="n">
+      <c r="K9" s="4">
         <v>25395</v>
       </c>
-      <c r="L9" s="4" t="n">
+      <c r="L9" s="4">
         <v>26573</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="N9" s="4" t="n">
-        <f aca="false">(L9-K9)/K9*100</f>
-        <v>4.63870840716677</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="10">
-      <c r="A10" s="4" t="n">
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>4.6387084071667655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="4" t="n">
+      <c r="C10" s="4">
         <v>22204</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
-      <c r="F10" s="4" t="n">
-        <f aca="false">(D10-C10)/C10*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I10" s="4" t="n">
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I10" s="4">
         <v>5</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="4" t="n">
+      <c r="K10" s="4">
         <v>22204</v>
       </c>
-      <c r="L10" s="4" t="n">
+      <c r="L10" s="4">
         <v>27788</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="4" t="n">
-        <f aca="false">(L10-K10)/K10*100</f>
-        <v>25.1486218699333</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="11">
-      <c r="A11" s="4" t="n">
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>25.148621869933347</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="4" t="n">
+      <c r="C11" s="4">
         <v>28723</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
-      <c r="F11" s="4" t="n">
-        <f aca="false">(D11-C11)/C11*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I11" s="4" t="n">
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I11" s="4">
         <v>6</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K11" s="4" t="n">
+      <c r="K11" s="4">
         <v>28723</v>
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="N11" s="4" t="n">
-        <f aca="false">(L11-K11)/K11*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="12">
-      <c r="A12" s="4" t="n">
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="4" t="n">
+      <c r="C12" s="4">
         <v>182566</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
-      <c r="F12" s="4" t="n">
-        <f aca="false">(D12-C12)/C12*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I12" s="4" t="n">
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I12" s="4">
         <v>7</v>
       </c>
       <c r="J12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K12" s="4" t="n">
+      <c r="K12" s="4">
         <v>182566</v>
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
-      <c r="N12" s="4" t="n">
-        <f aca="false">(L12-K12)/K12*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="13">
-      <c r="A13" s="4" t="n">
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="4">
         <v>22141</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4" t="n">
-        <f aca="false">(D13-C13)/C13*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I13" s="4" t="n">
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I13" s="4">
         <v>8</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="4" t="n">
+      <c r="K13" s="4">
         <v>22141</v>
       </c>
-      <c r="L13" s="4" t="n">
+      <c r="L13" s="4">
         <v>24826</v>
       </c>
-      <c r="M13" s="5" t="n">
-        <v>3.812</v>
-      </c>
-      <c r="N13" s="4" t="n">
-        <f aca="false">(L13-K13)/K13*100</f>
-        <v>12.1268235400388</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="14">
-      <c r="A14" s="4" t="n">
+      <c r="M13" s="5">
+        <v>3.8119999999999998</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>12.126823540038842</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="4" t="n">
+      <c r="C14" s="4">
         <v>26130</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="4" t="n">
-        <f aca="false">(D14-C14)/C14*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I14" s="4" t="n">
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I14" s="4">
         <v>9</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K14" s="4" t="n">
+      <c r="K14" s="4">
         <v>26130</v>
       </c>
-      <c r="L14" s="4" t="n">
+      <c r="L14" s="4">
         <v>30609</v>
       </c>
-      <c r="M14" s="5" t="n">
+      <c r="M14" s="5">
         <v>12.711</v>
       </c>
-      <c r="N14" s="4" t="n">
-        <f aca="false">(L14-K14)/K14*100</f>
-        <v>17.1412169919633</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="15">
-      <c r="A15" s="4" t="n">
+      <c r="N14" s="4">
+        <f t="shared" si="1"/>
+        <v>17.141216991963258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="4" t="n">
+      <c r="C15" s="4">
         <v>29437</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="4" t="n">
-        <f aca="false">(D15-C15)/C15*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I15" s="4" t="n">
+      <c r="F15" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I15" s="4">
         <v>10</v>
       </c>
       <c r="J15" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="4" t="n">
+      <c r="K15" s="4">
         <v>29437</v>
       </c>
-      <c r="L15" s="4" t="n">
+      <c r="L15" s="4">
         <v>31600</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="4" t="n">
-        <f aca="false">(L15-K15)/K15*100</f>
-        <v>7.34789550565615</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="16">
-      <c r="A16" s="4" t="n">
+      <c r="N15" s="4">
+        <f t="shared" si="1"/>
+        <v>7.3478955056561475</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="4" t="n">
+      <c r="C16" s="4">
         <v>20749</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
-      <c r="F16" s="4" t="n">
-        <f aca="false">(D16-C16)/C16*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I16" s="4" t="n">
+      <c r="F16" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I16" s="4">
         <v>11</v>
       </c>
       <c r="J16" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K16" s="4" t="n">
+      <c r="K16" s="4">
         <v>20749</v>
       </c>
-      <c r="L16" s="4" t="n">
+      <c r="L16" s="4">
         <v>23250</v>
       </c>
-      <c r="M16" s="4" t="n">
+      <c r="M16" s="4">
         <v>5.44</v>
       </c>
-      <c r="N16" s="4" t="n">
-        <f aca="false">(L16-K16)/K16*100</f>
-        <v>12.0535929442383</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="17">
-      <c r="A17" s="4" t="n">
+      <c r="N16" s="4">
+        <f t="shared" si="1"/>
+        <v>12.053592944238277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4" t="n">
+      <c r="C17" s="4">
         <v>21294</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="4" t="n">
-        <f aca="false">(D17-C17)/C17*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I17" s="4" t="n">
+      <c r="F17" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I17" s="4">
         <v>12</v>
       </c>
       <c r="J17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="4" t="n">
+      <c r="K17" s="4">
         <v>21294</v>
       </c>
-      <c r="L17" s="4" t="n">
+      <c r="L17" s="4">
         <v>23642</v>
       </c>
-      <c r="M17" s="4" t="n">
-        <v>4.084</v>
-      </c>
-      <c r="N17" s="4" t="n">
-        <f aca="false">(L17-K17)/K17*100</f>
-        <v>11.0265802573495</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="18">
-      <c r="A18" s="4" t="n">
+      <c r="M17" s="4">
+        <v>4.0839999999999996</v>
+      </c>
+      <c r="N17" s="4">
+        <f t="shared" si="1"/>
+        <v>11.026580257349488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="4">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="4" t="n">
+      <c r="C18" s="4">
         <v>23260728</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="4" t="n">
-        <f aca="false">(D18-C18)/C18*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I18" s="4" t="n">
+      <c r="F18" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I18" s="4">
         <v>13</v>
       </c>
       <c r="J18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K18" s="4" t="n">
+      <c r="K18" s="4">
         <v>23260728</v>
       </c>
       <c r="L18" s="4"/>
       <c r="M18" s="4"/>
-      <c r="N18" s="4" t="n">
-        <f aca="false">(L18-K18)/K18*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="19">
-      <c r="A19" s="4" t="n">
+      <c r="N18" s="4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="4">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="4" t="n">
+      <c r="C19" s="4">
         <v>378032</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="4" t="n">
-        <f aca="false">(D19-C19)/C19*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I19" s="4" t="n">
+      <c r="F19" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I19" s="4">
         <v>14</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K19" s="4" t="n">
+      <c r="K19" s="4">
         <v>378032</v>
       </c>
       <c r="L19" s="4"/>
       <c r="M19" s="4"/>
-      <c r="N19" s="4" t="n">
-        <f aca="false">(L19-K19)/K19*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="20">
-      <c r="A20" s="4" t="n">
+      <c r="N19" s="4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C20" s="4" t="n">
+      <c r="C20" s="4">
         <v>565040</v>
       </c>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="4" t="n">
-        <f aca="false">(D20-C20)/C20*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I20" s="4" t="n">
+      <c r="F20" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I20" s="4">
         <v>15</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K20" s="4" t="n">
+      <c r="K20" s="4">
         <v>565040</v>
       </c>
       <c r="L20" s="4"/>
       <c r="M20" s="4"/>
-      <c r="N20" s="4" t="n">
-        <f aca="false">(L20-K20)/K20*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="21">
-      <c r="A21" s="4" t="n">
+      <c r="N20" s="4">
+        <f>(L20-K20)/K20*100</f>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="4" t="n">
+      <c r="C21" s="4">
         <v>554070</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="4" t="n">
-        <f aca="false">(D21-C21)/C21*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I21" s="4" t="n">
+      <c r="F21" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I21" s="4">
         <v>16</v>
       </c>
       <c r="J21" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K21" s="4" t="n">
+      <c r="K21" s="4">
         <v>554070</v>
       </c>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
-      <c r="N21" s="4" t="n">
-        <f aca="false">(L21-K21)/K21*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="22">
-      <c r="A22" s="4" t="n">
+      <c r="N21" s="4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="4" t="n">
+      <c r="C22" s="4">
         <v>224094</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="4" t="n">
-        <f aca="false">(D22-C22)/C22*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I22" s="4" t="n">
+      <c r="F22" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I22" s="4">
         <v>17</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="4" t="n">
+      <c r="K22" s="4">
         <v>224094</v>
       </c>
-      <c r="L22" s="4" t="n">
+      <c r="L22" s="4">
         <v>290997</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="4" t="n">
-        <f aca="false">(L22-K22)/K22*100</f>
-        <v>29.8548823261667</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="23">
-      <c r="A23" s="4" t="n">
+      <c r="N22" s="4">
+        <f t="shared" si="1"/>
+        <v>29.854882326166699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="4" t="n">
+      <c r="C23" s="4">
         <v>239297</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
-      <c r="F23" s="4" t="n">
-        <f aca="false">(D23-C23)/C23*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I23" s="4" t="n">
+      <c r="F23" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I23" s="4">
         <v>18</v>
       </c>
       <c r="J23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K23" s="4" t="n">
+      <c r="K23" s="4">
         <v>239297</v>
       </c>
       <c r="L23" s="4"/>
       <c r="M23" s="4"/>
-      <c r="N23" s="4" t="n">
-        <f aca="false">(L23-K23)/K23*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="24">
-      <c r="A24" s="4" t="n">
+      <c r="N23" s="4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C24" s="4" t="n">
+      <c r="C24" s="4">
         <v>336556</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
-      <c r="F24" s="4" t="n">
-        <f aca="false">(D24-C24)/C24*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I24" s="4" t="n">
+      <c r="F24" s="4">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+      <c r="I24" s="4">
         <v>19</v>
       </c>
       <c r="J24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K24" s="4" t="n">
+      <c r="K24" s="4">
         <v>336556</v>
       </c>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4" t="n">
-        <f aca="false">(L24-K24)/K24*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="26">
-      <c r="A26" s="1" t="s">
+      <c r="N24" s="4">
+        <f t="shared" si="1"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="I26" s="1" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="I26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="27">
-      <c r="A27" s="2" t="s">
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="I27" s="2" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="I27" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="28">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
       <c r="D28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1131,9 +1471,9 @@
       <c r="F28" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
       <c r="L28" s="3" t="s">
         <v>7</v>
       </c>
@@ -1144,50 +1484,50 @@
         <v>9</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="29">
-      <c r="A29" s="4" t="n">
+    <row r="29" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="4">
         <v>0</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="4" t="n">
+      <c r="C29" s="4">
         <v>2579</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
-      <c r="F29" s="4" t="n">
-        <f aca="false">(D29-C29)/C29*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I29" s="4" t="n">
+      <c r="F29" s="4">
+        <f t="shared" ref="F29:F48" si="2">(D29-C29)/C29*100</f>
+        <v>-100</v>
+      </c>
+      <c r="I29" s="4">
         <v>0</v>
       </c>
       <c r="J29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="4" t="n">
+      <c r="K29" s="4">
         <v>2579</v>
       </c>
-      <c r="L29" s="4" t="n">
+      <c r="L29" s="4">
         <v>2888</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N29" s="4" t="n">
-        <f aca="false">(L29-K29)/K29*100</f>
-        <v>11.981388134936</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="30">
-      <c r="A30" s="4" t="n">
+      <c r="N29" s="4">
+        <f t="shared" ref="N29:O48" si="3">(L29-K29)/K29*100</f>
+        <v>11.981388134936022</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
         <v>1</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="4" t="n">
+      <c r="C30" s="4">
         <v>10628</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -1197,16 +1537,16 @@
         <v>39</v>
       </c>
       <c r="F30" s="4" t="e">
-        <f aca="false">(D30-C30)/C30*100</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I30" s="4" t="n">
+      <c r="I30" s="4">
         <v>1</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="K30" s="4" t="n">
+      <c r="K30" s="4">
         <v>10628</v>
       </c>
       <c r="L30" s="4" t="s">
@@ -1216,18 +1556,18 @@
         <v>39</v>
       </c>
       <c r="N30" s="4" t="e">
-        <f aca="false">(L30-K30)/K30*100</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="31">
-      <c r="A31" s="4" t="n">
+    <row r="31" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>2</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="4" t="n">
+      <c r="C31" s="4">
         <v>27686</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -1237,16 +1577,16 @@
         <v>39</v>
       </c>
       <c r="F31" s="4" t="e">
-        <f aca="false">(D31-C31)/C31*100</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I31" s="4" t="n">
+      <c r="I31" s="4">
         <v>2</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K31" s="4" t="n">
+      <c r="K31" s="4">
         <v>27686</v>
       </c>
       <c r="L31" s="4" t="s">
@@ -1256,18 +1596,18 @@
         <v>39</v>
       </c>
       <c r="N31" s="4" t="e">
-        <f aca="false">(L31-K31)/K31*100</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="32">
-      <c r="A32" s="4" t="n">
+    <row r="32" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
         <v>3</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C32" s="4" t="n">
+      <c r="C32" s="4">
         <v>39</v>
       </c>
       <c r="D32" s="4" t="s">
@@ -1277,16 +1617,16 @@
         <v>39</v>
       </c>
       <c r="F32" s="4" t="e">
-        <f aca="false">(D32-C32)/C32*100</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I32" s="4" t="n">
+      <c r="I32" s="4">
         <v>3</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="K32" s="4" t="n">
+      <c r="K32" s="4">
         <v>39</v>
       </c>
       <c r="L32" s="4" t="s">
@@ -1296,18 +1636,18 @@
         <v>39</v>
       </c>
       <c r="N32" s="4" t="e">
-        <f aca="false">(L32-K32)/K32*100</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="33">
-      <c r="A33" s="4" t="n">
+    <row r="33" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
         <v>4</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C33" s="4" t="n">
+      <c r="C33" s="4">
         <v>25395</v>
       </c>
       <c r="D33" s="4" t="s">
@@ -1317,16 +1657,16 @@
         <v>39</v>
       </c>
       <c r="F33" s="4" t="e">
-        <f aca="false">(D33-C33)/C33*100</f>
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I33" s="4" t="n">
+      <c r="I33" s="4">
         <v>4</v>
       </c>
       <c r="J33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="K33" s="4" t="n">
+      <c r="K33" s="4">
         <v>25395</v>
       </c>
       <c r="L33" s="4" t="s">
@@ -1336,520 +1676,581 @@
         <v>39</v>
       </c>
       <c r="N33" s="4" t="e">
-        <f aca="false">(L33-K33)/K33*100</f>
+        <f t="shared" si="3"/>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="34">
-      <c r="A34" s="4" t="n">
+    <row r="34" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
         <v>5</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C34" s="4" t="n">
+      <c r="C34" s="4">
         <v>22204</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="4" t="n">
-        <f aca="false">(D34-C34)/C34*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I34" s="4" t="n">
+      <c r="F34" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I34" s="4">
         <v>5</v>
       </c>
       <c r="J34" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K34" s="4" t="n">
+      <c r="K34" s="4">
         <v>22204</v>
       </c>
-      <c r="L34" s="4" t="n">
+      <c r="L34" s="4">
         <v>27736</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="N34" s="4" t="n">
-        <f aca="false">(L34-K34)/K34*100</f>
-        <v>24.9144298324626</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="35">
-      <c r="A35" s="4" t="n">
+      <c r="N34" s="4">
+        <f t="shared" si="3"/>
+        <v>24.91442983246262</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
         <v>6</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="4" t="n">
+      <c r="C35" s="4">
         <v>28723</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="4" t="n">
-        <f aca="false">(D35-C35)/C35*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I35" s="4" t="n">
+      <c r="F35" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I35" s="4">
         <v>6</v>
       </c>
       <c r="J35" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="4" t="n">
+      <c r="K35" s="4">
         <v>28723</v>
       </c>
-      <c r="L35" s="4"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4" t="n">
-        <f aca="false">(L35-K35)/K35*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="36">
-      <c r="A36" s="4" t="n">
+      <c r="L35" s="4">
+        <v>32339</v>
+      </c>
+      <c r="M35" s="4">
+        <v>89.531999999999996</v>
+      </c>
+      <c r="N35" s="4">
+        <f t="shared" si="3"/>
+        <v>12.589214218570483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="4">
         <v>7</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="4" t="n">
+      <c r="C36" s="4">
         <v>182566</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="4" t="n">
-        <f aca="false">(D36-C36)/C36*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I36" s="4" t="n">
+      <c r="F36" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I36" s="4">
         <v>7</v>
       </c>
       <c r="J36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="4" t="n">
+      <c r="K36" s="4">
         <v>182566</v>
       </c>
-      <c r="L36" s="4"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4" t="n">
-        <f aca="false">(L36-K36)/K36*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="37">
-      <c r="A37" s="4" t="n">
+      <c r="L36" s="4">
+        <v>204748</v>
+      </c>
+      <c r="M36" s="4">
+        <v>119.43300000000001</v>
+      </c>
+      <c r="N36" s="4">
+        <f t="shared" si="3"/>
+        <v>12.150126529583821</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
         <v>8</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="4" t="n">
+      <c r="C37" s="4">
         <v>22141</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
-      <c r="F37" s="4" t="n">
-        <f aca="false">(D37-C37)/C37*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I37" s="4" t="n">
+      <c r="F37" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I37" s="4">
         <v>8</v>
       </c>
       <c r="J37" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="K37" s="4" t="n">
+      <c r="K37" s="4">
         <v>22141</v>
       </c>
-      <c r="L37" s="4" t="n">
+      <c r="L37" s="4">
         <v>24687</v>
       </c>
-      <c r="M37" s="5" t="n">
+      <c r="M37" s="5">
         <v>6.38</v>
       </c>
-      <c r="N37" s="4" t="n">
-        <f aca="false">(L37-K37)/K37*100</f>
-        <v>11.4990289508152</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="38">
-      <c r="A38" s="4" t="n">
+      <c r="N37" s="4">
+        <f t="shared" si="3"/>
+        <v>11.49902895081523</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
         <v>9</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="4" t="n">
+      <c r="C38" s="4">
         <v>26130</v>
       </c>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
-      <c r="F38" s="4" t="n">
-        <f aca="false">(D38-C38)/C38*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I38" s="4" t="n">
+      <c r="F38" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I38" s="4">
         <v>9</v>
       </c>
       <c r="J38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K38" s="4" t="n">
+      <c r="K38" s="4">
         <v>26130</v>
       </c>
-      <c r="L38" s="4" t="n">
+      <c r="L38" s="4">
         <v>31117</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N38" s="4" t="n">
-        <f aca="false">(L38-K38)/K38*100</f>
-        <v>19.0853425181783</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="39">
-      <c r="A39" s="4" t="n">
+      <c r="N38" s="4">
+        <f t="shared" si="3"/>
+        <v>19.08534251817834</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
         <v>10</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="4" t="n">
+      <c r="C39" s="4">
         <v>29437</v>
       </c>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="4" t="n">
-        <f aca="false">(D39-C39)/C39*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I39" s="4" t="n">
+      <c r="F39" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I39" s="4">
         <v>10</v>
       </c>
       <c r="J39" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K39" s="4" t="n">
+      <c r="K39" s="4">
         <v>29437</v>
       </c>
-      <c r="L39" s="4" t="n">
+      <c r="L39" s="4">
         <v>31322</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="N39" s="4" t="n">
-        <f aca="false">(L39-K39)/K39*100</f>
-        <v>6.40350579203044</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="40">
-      <c r="A40" s="4" t="n">
+      <c r="N39" s="4">
+        <f t="shared" si="3"/>
+        <v>6.4035057920304377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="4">
         <v>11</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C40" s="4" t="n">
+      <c r="C40" s="4">
         <v>20749</v>
       </c>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
-      <c r="F40" s="4" t="n">
-        <f aca="false">(D40-C40)/C40*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I40" s="4" t="n">
+      <c r="F40" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I40" s="4">
         <v>11</v>
       </c>
       <c r="J40" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="4" t="n">
+      <c r="K40" s="4">
         <v>20749</v>
       </c>
-      <c r="L40" s="4" t="n">
+      <c r="L40" s="4">
         <v>23184</v>
       </c>
-      <c r="M40" s="4" t="n">
-        <v>5.787</v>
-      </c>
-      <c r="N40" s="4" t="n">
-        <f aca="false">(L40-K40)/K40*100</f>
-        <v>11.7355053255579</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="41">
-      <c r="A41" s="4" t="n">
+      <c r="M40" s="4">
+        <v>5.7869999999999999</v>
+      </c>
+      <c r="N40" s="4">
+        <f t="shared" si="3"/>
+        <v>11.735505325557858</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="4">
         <v>12</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="4" t="n">
+      <c r="C41" s="4">
         <v>21294</v>
       </c>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
-      <c r="F41" s="4" t="n">
-        <f aca="false">(D41-C41)/C41*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I41" s="4" t="n">
+      <c r="F41" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I41" s="4">
         <v>12</v>
       </c>
       <c r="J41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="4" t="n">
+      <c r="K41" s="4">
         <v>21294</v>
       </c>
-      <c r="L41" s="4" t="n">
+      <c r="L41" s="4">
         <v>23381</v>
       </c>
-      <c r="M41" s="4" t="n">
-        <v>7.061</v>
-      </c>
-      <c r="N41" s="4" t="n">
-        <f aca="false">(L41-K41)/K41*100</f>
-        <v>9.80088287780596</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="42">
-      <c r="A42" s="4" t="n">
+      <c r="M41" s="4">
+        <v>7.0609999999999999</v>
+      </c>
+      <c r="N41" s="4">
+        <f t="shared" si="3"/>
+        <v>9.8008828778059556</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="4">
         <v>13</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C42" s="4" t="n">
+      <c r="C42" s="4">
         <v>23260728</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
-      <c r="F42" s="4" t="n">
-        <f aca="false">(D42-C42)/C42*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I42" s="4" t="n">
+      <c r="F42" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I42" s="4">
         <v>13</v>
       </c>
       <c r="J42" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K42" s="4" t="n">
+      <c r="K42" s="4">
         <v>23260728</v>
       </c>
-      <c r="L42" s="4"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4" t="n">
-        <f aca="false">(L42-K42)/K42*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="43">
-      <c r="A43" s="4" t="n">
+      <c r="L42" s="4">
+        <v>26840880</v>
+      </c>
+      <c r="M42" s="4">
+        <v>341.65199999999999</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="3"/>
+        <v>15.391401335332239</v>
+      </c>
+      <c r="O42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="4">
         <v>14</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="4" t="n">
+      <c r="C43" s="4">
         <v>378032</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
-      <c r="F43" s="4" t="n">
-        <f aca="false">(D43-C43)/C43*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I43" s="4" t="n">
+      <c r="F43" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I43" s="4">
         <v>14</v>
       </c>
       <c r="J43" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K43" s="4" t="n">
+      <c r="K43" s="4">
         <v>378032</v>
       </c>
-      <c r="L43" s="4"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4" t="n">
-        <f aca="false">(L43-K43)/K43*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="44">
-      <c r="A44" s="4" t="n">
+      <c r="L43" s="4">
+        <v>442813</v>
+      </c>
+      <c r="M43" s="4">
+        <v>29.065000000000001</v>
+      </c>
+      <c r="N43" s="9">
+        <f t="shared" si="3"/>
+        <v>17.136379988995639</v>
+      </c>
+      <c r="O43" s="11">
+        <v>432746</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="4">
         <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C44" s="4" t="n">
+      <c r="C44" s="4">
         <v>565040</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
-      <c r="F44" s="4" t="n">
-        <f aca="false">(D44-C44)/C44*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I44" s="4" t="n">
+      <c r="F44" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I44" s="4">
         <v>15</v>
       </c>
       <c r="J44" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K44" s="4" t="n">
+      <c r="K44" s="4">
         <v>565040</v>
       </c>
-      <c r="L44" s="4"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4" t="n">
-        <f aca="false">(L44-K44)/K44*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="45">
-      <c r="A45" s="4" t="n">
+      <c r="L44" s="4">
+        <v>665876</v>
+      </c>
+      <c r="M44" s="4">
+        <v>180.19900000000001</v>
+      </c>
+      <c r="N44" s="9">
+        <f>(L44-K44)/K44*100</f>
+        <v>17.845816225399972</v>
+      </c>
+      <c r="O44" s="12">
+        <f>(O43-K43)/K43*100</f>
+        <v>14.473377915097135</v>
+      </c>
+      <c r="P44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="4">
         <v>16</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="4" t="n">
+      <c r="C45" s="4">
         <v>554070</v>
       </c>
       <c r="D45" s="4"/>
       <c r="E45" s="4"/>
-      <c r="F45" s="4" t="n">
-        <f aca="false">(D45-C45)/C45*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I45" s="4" t="n">
+      <c r="F45" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I45" s="4">
         <v>16</v>
       </c>
       <c r="J45" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="K45" s="4" t="n">
+      <c r="K45" s="4">
         <v>554070</v>
       </c>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4" t="n">
-        <f aca="false">(L45-K45)/K45*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="46">
-      <c r="A46" s="4" t="n">
+      <c r="L45" s="4">
+        <v>648874</v>
+      </c>
+      <c r="M45" s="4">
+        <v>191.66</v>
+      </c>
+      <c r="N45" s="4">
+        <f t="shared" si="3"/>
+        <v>17.11047340588734</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="4">
         <v>17</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C46" s="4" t="n">
+      <c r="C46" s="4">
         <v>224094</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
-      <c r="F46" s="4" t="n">
-        <f aca="false">(D46-C46)/C46*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I46" s="4" t="n">
+      <c r="F46" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I46" s="4">
         <v>17</v>
       </c>
       <c r="J46" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="K46" s="4" t="n">
+      <c r="K46" s="4">
         <v>224094</v>
       </c>
-      <c r="L46" s="4" t="n">
+      <c r="L46" s="4">
         <v>290935</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="N46" s="4" t="n">
-        <f aca="false">(L46-K46)/K46*100</f>
-        <v>29.8272153649808</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="47">
-      <c r="A47" s="4" t="n">
+      <c r="N46" s="4">
+        <f t="shared" si="3"/>
+        <v>29.82721536498077</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="4">
         <v>18</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C47" s="4" t="n">
+      <c r="C47" s="4">
         <v>239297</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
-      <c r="F47" s="4" t="n">
-        <f aca="false">(D47-C47)/C47*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I47" s="4" t="n">
+      <c r="F47" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I47" s="4">
         <v>18</v>
       </c>
       <c r="J47" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K47" s="4" t="n">
+      <c r="K47" s="4">
         <v>239297</v>
       </c>
-      <c r="L47" s="4"/>
-      <c r="M47" s="4"/>
-      <c r="N47" s="4" t="n">
-        <f aca="false">(L47-K47)/K47*100</f>
-        <v>-100</v>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.8" outlineLevel="0" r="48">
-      <c r="A48" s="4" t="n">
+      <c r="L47" s="4">
+        <v>270554</v>
+      </c>
+      <c r="M47" s="4">
+        <v>6.1790000000000003</v>
+      </c>
+      <c r="N47" s="4">
+        <f t="shared" si="3"/>
+        <v>13.062010806654492</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="4">
         <v>19</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C48" s="4" t="n">
+      <c r="C48" s="4">
         <v>336556</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
-      <c r="F48" s="4" t="n">
-        <f aca="false">(D48-C48)/C48*100</f>
-        <v>-100</v>
-      </c>
-      <c r="I48" s="4" t="n">
+      <c r="F48" s="4">
+        <f t="shared" si="2"/>
+        <v>-100</v>
+      </c>
+      <c r="I48" s="4">
         <v>19</v>
       </c>
       <c r="J48" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K48" s="4" t="n">
+      <c r="K48" s="4">
         <v>336556</v>
       </c>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4" t="n">
-        <f aca="false">(L48-K48)/K48*100</f>
-        <v>-100</v>
-      </c>
+      <c r="L48" s="4">
+        <v>396296</v>
+      </c>
+      <c r="M48" s="4">
+        <v>13.759</v>
+      </c>
+      <c r="N48" s="7">
+        <f t="shared" si="3"/>
+        <v>17.750389236858055</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N49" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="I26:N26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="L27:N27"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A2:F2"/>
@@ -1862,21 +2263,10 @@
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="I26:N26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="L27:N27"/>
   </mergeCells>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
-  <pageSetup blackAndWhite="false" cellComments="none" copies="1" draft="false" firstPageNumber="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" useFirstPageNumber="true" usePrinterDefaults="false" verticalDpi="300"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
